--- a/FranckHertz/HE and Na Spectrum.xlsx
+++ b/FranckHertz/HE and Na Spectrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15600" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="-990" yWindow="-60" windowWidth="15600" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calc" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="226">
   <si>
     <t>Na first order</t>
   </si>
@@ -774,6 +774,9 @@
   <si>
     <t>Na Lines</t>
   </si>
+  <si>
+    <t>=1/4*(sadf)^2*(sdf)+1/4*(dsf)^2*(dsf)</t>
+  </si>
 </sst>
 </file>
 
@@ -784,7 +787,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -983,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1107,39 +1110,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1169,15 +1145,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1211,9 +1181,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1526,19 +1530,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="10" t="s">
@@ -1552,20 +1556,20 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="61"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61" t="s">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="94"/>
       <c r="E5" t="s">
         <v>36</v>
       </c>
@@ -1581,7 +1585,7 @@
       <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="94" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1613,7 +1617,7 @@
       <c r="I6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="61"/>
+      <c r="J6" s="94"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
@@ -1710,8 +1714,8 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="12" spans="1:12">
       <c r="K12" t="s">
@@ -1719,28 +1723,28 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="94"/>
       <c r="E16" t="s">
         <v>7</v>
       </c>
@@ -1820,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1861,14 +1865,14 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61" t="s">
+      <c r="D4" s="94"/>
+      <c r="E4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="94"/>
       <c r="G4" t="s">
         <v>4</v>
       </c>
@@ -1911,11 +1915,11 @@
         <f t="shared" ref="I5:I11" si="2">STDEV(G5:H5)/SQRT(2)</f>
         <v>2.5000000000005681E-2</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="K5" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
       <c r="N5" t="s">
         <v>11</v>
       </c>
@@ -2035,16 +2039,16 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="75">
         <v>234.5</v>
       </c>
-      <c r="D9" s="84">
-        <v>0</v>
-      </c>
-      <c r="E9" s="84">
+      <c r="D9" s="75">
+        <v>0</v>
+      </c>
+      <c r="E9" s="75">
         <v>192.5</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="75">
         <v>26</v>
       </c>
       <c r="G9" s="2">
@@ -2059,11 +2063,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9" s="72" t="s">
+      <c r="M9" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
@@ -2096,14 +2100,14 @@
         <f t="shared" si="2"/>
         <v>0.21666666666661183</v>
       </c>
-      <c r="L10" s="85" t="str">
+      <c r="L10" s="76" t="str">
         <f>B15</f>
         <v>Color</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="N10" s="69" t="s">
+      <c r="N10" s="61" t="s">
         <v>26</v>
       </c>
       <c r="O10" s="4" t="s">
@@ -2141,18 +2145,18 @@
         <f t="shared" si="2"/>
         <v>3.3333333333331439E-2</v>
       </c>
-      <c r="L11" s="86" t="s">
+      <c r="L11" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="70">
+      <c r="M11" s="62">
         <f>F16</f>
         <v>4484.856316319604</v>
       </c>
-      <c r="N11" s="71">
+      <c r="N11" s="63">
         <f>'He Spectrum Database'!A148</f>
         <v>4471.4802</v>
       </c>
-      <c r="O11" s="87">
+      <c r="O11" s="78">
         <f>(M11-N11)/(N11)</f>
         <v>2.9914291736333931E-3</v>
       </c>
@@ -2161,18 +2165,18 @@
       <c r="I12" t="s">
         <v>140</v>
       </c>
-      <c r="L12" s="86" t="s">
+      <c r="L12" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="70">
+      <c r="M12" s="62">
         <f t="shared" ref="M12:M17" si="3">F17</f>
         <v>4723.5016087649137</v>
       </c>
-      <c r="N12" s="71">
+      <c r="N12" s="63">
         <f>'He Spectrum Database'!A153</f>
         <v>4713.1457</v>
       </c>
-      <c r="O12" s="87">
+      <c r="O12" s="78">
         <f t="shared" ref="O12:O17" si="4">(M12-N12)/(N12)</f>
         <v>2.1972392588910828E-3</v>
       </c>
@@ -2181,45 +2185,45 @@
       <c r="I13" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="86" t="s">
+      <c r="L13" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="70">
+      <c r="M13" s="62">
         <f t="shared" si="3"/>
         <v>4924.2516980720748</v>
       </c>
-      <c r="N13" s="71">
+      <c r="N13" s="63">
         <f>'He Spectrum Database'!A158</f>
         <v>4921.9313000000002</v>
       </c>
-      <c r="O13" s="87">
+      <c r="O13" s="78">
         <f t="shared" si="4"/>
         <v>4.7144056481945764E-4</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
       <c r="G14" t="s">
         <v>139</v>
       </c>
-      <c r="L14" s="86" t="s">
+      <c r="L14" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="70">
+      <c r="M14" s="62">
         <f t="shared" si="3"/>
         <v>5034.6736700246829</v>
       </c>
-      <c r="N14" s="71">
+      <c r="N14" s="63">
         <f>'He Spectrum Database'!A159</f>
         <v>5015.6782999999996</v>
       </c>
-      <c r="O14" s="87">
+      <c r="O14" s="78">
         <f t="shared" si="4"/>
         <v>3.7871986376565112E-3</v>
       </c>
@@ -2240,18 +2244,21 @@
       <c r="F15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="86" t="s">
+      <c r="G15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="70">
+      <c r="M15" s="62">
         <f t="shared" si="3"/>
         <v>5883.9818058411656</v>
       </c>
-      <c r="N15" s="71">
+      <c r="N15" s="63">
         <f>'He Spectrum Database'!A165</f>
         <v>5875.6210000000001</v>
       </c>
-      <c r="O15" s="87">
+      <c r="O15" s="78">
         <f t="shared" si="4"/>
         <v>1.4229654773794172E-3</v>
       </c>
@@ -2276,21 +2283,21 @@
         <f>E16*10^10</f>
         <v>4484.856316319604</v>
       </c>
-      <c r="G16" t="s">
-        <v>135</v>
-      </c>
-      <c r="L16" s="86" t="s">
+      <c r="G16" s="106" t="s">
+        <v>225</v>
+      </c>
+      <c r="L16" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="70">
+      <c r="M16" s="62">
         <f>F21</f>
         <v>6744.5820651297681</v>
       </c>
-      <c r="N16" s="71">
+      <c r="N16" s="63">
         <f>'He Spectrum Database'!A171</f>
         <v>6678.1509999999998</v>
       </c>
-      <c r="O16" s="87">
+      <c r="O16" s="78">
         <f>(M16-N16)/(N16)</f>
         <v>9.9475236678188746E-3</v>
       </c>
@@ -2315,18 +2322,18 @@
         <f t="shared" ref="F17:F22" si="7">E17*10^10</f>
         <v>4723.5016087649137</v>
       </c>
-      <c r="L17" s="86" t="s">
+      <c r="L17" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="70">
+      <c r="M17" s="62">
         <f t="shared" si="3"/>
         <v>7073.490932729027</v>
       </c>
-      <c r="N17" s="71">
+      <c r="N17" s="63">
         <f>'He Spectrum Database'!A174</f>
         <v>7065.19</v>
       </c>
-      <c r="O17" s="87">
+      <c r="O17" s="78">
         <f t="shared" si="4"/>
         <v>1.1749058028202226E-3</v>
       </c>
@@ -2453,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L17" sqref="K17:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2463,24 +2470,24 @@
     <col min="2" max="2" width="9.140625" style="20"/>
     <col min="4" max="4" width="9.140625" style="16" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="92"/>
+    <col min="10" max="10" width="9.140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="91" t="s">
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="99" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2494,7 +2501,7 @@
       <c r="C2" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="90"/>
+      <c r="D2" s="98"/>
       <c r="G2" t="s">
         <v>187</v>
       </c>
@@ -2504,7 +2511,7 @@
       <c r="I2" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="91"/>
+      <c r="J2" s="99"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -2531,7 +2538,7 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="92">
+      <c r="J3" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2560,7 +2567,7 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="92">
+      <c r="J4" s="81">
         <v>4.6673825999999998</v>
       </c>
     </row>
@@ -2589,7 +2596,7 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="92">
+      <c r="J5" s="81">
         <v>4.8864942999999998</v>
       </c>
     </row>
@@ -2615,7 +2622,7 @@
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="92">
+      <c r="J6" s="81">
         <v>5.4606244000000004</v>
       </c>
     </row>
@@ -2641,7 +2648,7 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="92">
+      <c r="J7" s="81">
         <v>6.7036618800000003</v>
       </c>
     </row>
@@ -2670,7 +2677,7 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="92">
+      <c r="J8" s="81">
         <v>7.7304545999999998</v>
       </c>
     </row>
@@ -2699,7 +2706,7 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="81">
         <v>7.9260761999999998</v>
       </c>
     </row>
@@ -2728,7 +2735,7 @@
       <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="81">
         <v>8.5408279999999994</v>
       </c>
     </row>
@@ -2757,7 +2764,7 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="92">
+      <c r="J11" s="81">
         <v>9.7715680000000003</v>
       </c>
     </row>
@@ -2783,7 +2790,7 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="92">
+      <c r="J12" s="81">
         <v>8.6189564000000001</v>
       </c>
     </row>
@@ -2809,7 +2816,7 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="92">
+      <c r="J13" s="81">
         <v>8.6369623000000004</v>
       </c>
     </row>
@@ -2838,7 +2845,7 @@
       <c r="I14">
         <v>2</v>
       </c>
-      <c r="J14" s="92">
+      <c r="J14" s="81">
         <v>8.8285789999999995</v>
       </c>
     </row>
@@ -2864,7 +2871,7 @@
       <c r="I15">
         <v>3</v>
       </c>
-      <c r="J15" s="92">
+      <c r="J15" s="81">
         <v>8.7944700000000005</v>
       </c>
     </row>
@@ -2890,7 +2897,7 @@
       <c r="I16">
         <v>4</v>
       </c>
-      <c r="J16" s="92">
+      <c r="J16" s="81">
         <v>9.5399969999999996</v>
       </c>
     </row>
@@ -2919,7 +2926,7 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17" s="92">
+      <c r="J17" s="81">
         <v>8.8394359999999992</v>
       </c>
     </row>
@@ -2948,7 +2955,7 @@
       <c r="I18">
         <v>2</v>
       </c>
-      <c r="J18" s="92">
+      <c r="J18" s="81">
         <v>8.8441708000000006</v>
       </c>
     </row>
@@ -2977,7 +2984,7 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="92">
+      <c r="J19" s="81">
         <v>8.8445368000000002</v>
       </c>
     </row>
@@ -3006,7 +3013,7 @@
       <c r="I20">
         <v>2</v>
       </c>
-      <c r="J20" s="92">
+      <c r="J20" s="81">
         <v>8.8519842999999998</v>
       </c>
     </row>
@@ -3035,7 +3042,7 @@
       <c r="I21">
         <v>3</v>
       </c>
-      <c r="J21" s="92">
+      <c r="J21" s="81">
         <v>8.8563369999999999</v>
       </c>
     </row>
@@ -3875,15 +3882,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="L1" s="88" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="L1" s="79" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3894,7 +3901,7 @@
       <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="80" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3920,50 +3927,50 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="66" t="s">
+      <c r="F8" s="102"/>
+      <c r="G8" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="64" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65" t="s">
+      <c r="J8" s="102"/>
+      <c r="K8" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66" t="s">
+      <c r="L8" s="101"/>
+      <c r="M8" s="103" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3974,25 +3981,25 @@
       <c r="B9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="22" t="s">
         <v>113</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
       <c r="K9" s="23" t="s">
         <v>111</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="66"/>
+      <c r="M9" s="103"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="59">
@@ -4077,84 +4084,84 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="79">
+      <c r="A12" s="70">
         <v>320.29259999999999</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="70">
         <v>320.29259999999999</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="71">
         <v>312214.7</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="72">
         <v>10</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="73">
         <v>20.964095349809998</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="73">
         <v>59.673780000000001</v>
       </c>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="83" t="s">
+      <c r="H12" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="83" t="s">
+      <c r="J12" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="81">
-        <v>1</v>
-      </c>
-      <c r="L12" s="81" t="s">
+      <c r="K12" s="72">
+        <v>1</v>
+      </c>
+      <c r="L12" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="82" t="s">
+      <c r="M12" s="73" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="79">
+      <c r="A13" s="70">
         <v>505.61</v>
       </c>
-      <c r="B13" s="79">
+      <c r="B13" s="70">
         <v>505.50040000000001</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="71">
         <v>197823.79</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="72">
         <v>2</v>
       </c>
-      <c r="E13" s="82">
-        <v>0</v>
-      </c>
-      <c r="F13" s="82">
+      <c r="E13" s="73">
+        <v>0</v>
+      </c>
+      <c r="F13" s="73">
         <v>24.527021999999999</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="83" t="s">
+      <c r="I13" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="83" t="s">
+      <c r="J13" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="81">
-        <v>0</v>
-      </c>
-      <c r="L13" s="81">
-        <v>1</v>
-      </c>
-      <c r="M13" s="82" t="s">
+      <c r="K13" s="72">
+        <v>0</v>
+      </c>
+      <c r="L13" s="72">
+        <v>1</v>
+      </c>
+      <c r="M13" s="73" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4883,43 +4890,43 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="73">
+      <c r="A32" s="64">
         <v>537.02930000000003</v>
       </c>
-      <c r="B32" s="73">
+      <c r="B32" s="64">
         <v>537.02991799999995</v>
       </c>
-      <c r="C32" s="74">
+      <c r="C32" s="65">
         <v>186209.36494</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="66">
         <v>400</v>
       </c>
-      <c r="E32" s="76">
-        <v>0</v>
-      </c>
-      <c r="F32" s="76">
+      <c r="E32" s="67">
+        <v>0</v>
+      </c>
+      <c r="F32" s="67">
         <v>23.087017385399999</v>
       </c>
-      <c r="G32" s="77" t="s">
+      <c r="G32" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="77" t="s">
+      <c r="H32" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="77" t="s">
+      <c r="I32" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="J32" s="77" t="s">
+      <c r="J32" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="K32" s="75">
-        <v>0</v>
-      </c>
-      <c r="L32" s="75">
-        <v>1</v>
-      </c>
-      <c r="M32" s="76" t="s">
+      <c r="K32" s="66">
+        <v>0</v>
+      </c>
+      <c r="L32" s="66">
+        <v>1</v>
+      </c>
+      <c r="M32" s="67" t="s">
         <v>123</v>
       </c>
       <c r="N32" t="s">
@@ -4927,240 +4934,240 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="73">
+      <c r="B33" s="64">
         <v>537.33117300000004</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C33" s="65">
         <v>186104.9666893</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="76">
-        <v>0</v>
-      </c>
-      <c r="F33" s="76">
+      <c r="D33" s="66"/>
+      <c r="E33" s="67">
+        <v>0</v>
+      </c>
+      <c r="F33" s="67">
         <v>23.07407365281</v>
       </c>
-      <c r="G33" s="77" t="s">
+      <c r="G33" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="77" t="s">
+      <c r="H33" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="I33" s="77" t="s">
+      <c r="I33" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="77" t="s">
+      <c r="J33" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="K33" s="75">
-        <v>0</v>
-      </c>
-      <c r="L33" s="75">
+      <c r="K33" s="66">
+        <v>0</v>
+      </c>
+      <c r="L33" s="66">
         <v>2</v>
       </c>
-      <c r="M33" s="76" t="s">
+      <c r="M33" s="67" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="73">
+      <c r="B34" s="64">
         <v>538.89599899999996</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="65">
         <v>185564.56192000001</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76">
-        <v>0</v>
-      </c>
-      <c r="F34" s="76">
+      <c r="D34" s="66"/>
+      <c r="E34" s="67">
+        <v>0</v>
+      </c>
+      <c r="F34" s="67">
         <v>23.007072004899999</v>
       </c>
-      <c r="G34" s="77" t="s">
+      <c r="G34" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="77" t="s">
+      <c r="H34" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="I34" s="77" t="s">
+      <c r="I34" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="77" t="s">
+      <c r="J34" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="75">
-        <v>0</v>
-      </c>
-      <c r="L34" s="75">
+      <c r="K34" s="66">
+        <v>0</v>
+      </c>
+      <c r="L34" s="66">
         <v>2</v>
       </c>
-      <c r="M34" s="76" t="s">
+      <c r="M34" s="67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="73">
+      <c r="A35" s="64">
         <v>584.33389999999997</v>
       </c>
-      <c r="B35" s="73">
+      <c r="B35" s="64">
         <v>584.33435699999995</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="65">
         <v>171134.89694599999</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D35" s="66">
         <v>1000</v>
       </c>
-      <c r="E35" s="76">
-        <v>0</v>
-      </c>
-      <c r="F35" s="76">
+      <c r="E35" s="67">
+        <v>0</v>
+      </c>
+      <c r="F35" s="67">
         <v>21.218021673199999</v>
       </c>
-      <c r="G35" s="77" t="s">
+      <c r="G35" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="77" t="s">
+      <c r="H35" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I35" s="77" t="s">
+      <c r="I35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="77" t="s">
+      <c r="J35" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="K35" s="75">
-        <v>0</v>
-      </c>
-      <c r="L35" s="75">
-        <v>1</v>
-      </c>
-      <c r="M35" s="76" t="s">
+      <c r="K35" s="66">
+        <v>0</v>
+      </c>
+      <c r="L35" s="66">
+        <v>1</v>
+      </c>
+      <c r="M35" s="67" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="73">
+      <c r="A36" s="64">
         <v>591.41210000000001</v>
       </c>
-      <c r="B36" s="73">
+      <c r="B36" s="64">
         <v>591.41207099999997</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="65">
         <v>169086.8428979</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="66">
         <v>50</v>
       </c>
-      <c r="E36" s="76">
-        <v>0</v>
-      </c>
-      <c r="F36" s="76">
+      <c r="E36" s="67">
+        <v>0</v>
+      </c>
+      <c r="F36" s="67">
         <v>20.964095349809998</v>
       </c>
-      <c r="G36" s="77" t="s">
+      <c r="G36" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="77" t="s">
+      <c r="H36" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I36" s="77" t="s">
+      <c r="I36" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="77" t="s">
+      <c r="J36" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="75">
-        <v>0</v>
-      </c>
-      <c r="L36" s="75">
-        <v>1</v>
-      </c>
-      <c r="M36" s="76" t="s">
+      <c r="K36" s="66">
+        <v>0</v>
+      </c>
+      <c r="L36" s="66">
+        <v>1</v>
+      </c>
+      <c r="M36" s="67" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="73">
+      <c r="B37" s="64">
         <v>591.41233899999997</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="65">
         <v>169086.76647249999</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="76">
-        <v>0</v>
-      </c>
-      <c r="F37" s="76">
+      <c r="D37" s="66"/>
+      <c r="E37" s="67">
+        <v>0</v>
+      </c>
+      <c r="F37" s="67">
         <v>20.96408587426</v>
       </c>
-      <c r="G37" s="77" t="s">
+      <c r="G37" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="77" t="s">
+      <c r="H37" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I37" s="77" t="s">
+      <c r="I37" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="J37" s="77" t="s">
+      <c r="J37" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="75">
-        <v>0</v>
-      </c>
-      <c r="L37" s="75">
+      <c r="K37" s="66">
+        <v>0</v>
+      </c>
+      <c r="L37" s="66">
         <v>2</v>
       </c>
-      <c r="M37" s="76" t="s">
+      <c r="M37" s="67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="78" t="s">
+      <c r="A38" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="73">
+      <c r="B38" s="64">
         <v>625.56310699999995</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="65">
         <v>159855.97432969999</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="76">
-        <v>0</v>
-      </c>
-      <c r="F38" s="76">
+      <c r="D38" s="66"/>
+      <c r="E38" s="67">
+        <v>0</v>
+      </c>
+      <c r="F38" s="67">
         <v>19.819613582279999</v>
       </c>
-      <c r="G38" s="77" t="s">
+      <c r="G38" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="77" t="s">
+      <c r="H38" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="I38" s="77" t="s">
+      <c r="I38" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="77" t="s">
+      <c r="J38" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="K38" s="75">
-        <v>0</v>
-      </c>
-      <c r="L38" s="75">
-        <v>1</v>
-      </c>
-      <c r="M38" s="76" t="s">
+      <c r="K38" s="66">
+        <v>0</v>
+      </c>
+      <c r="L38" s="66">
+        <v>1</v>
+      </c>
+      <c r="M38" s="67" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5180,33 +5187,33 @@
       <c r="M39" s="24"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="67" t="s">
+      <c r="B40" s="101"/>
+      <c r="C40" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="64"/>
-      <c r="G40" s="66" t="s">
+      <c r="F40" s="102"/>
+      <c r="G40" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="H40" s="66"/>
-      <c r="I40" s="64" t="s">
+      <c r="H40" s="103"/>
+      <c r="I40" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65" t="s">
+      <c r="J40" s="102"/>
+      <c r="K40" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="L40" s="65"/>
-      <c r="M40" s="66" t="s">
+      <c r="L40" s="101"/>
+      <c r="M40" s="103" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5217,25 +5224,25 @@
       <c r="B41" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="66"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="103"/>
       <c r="E41" s="22" t="s">
         <v>113</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
       <c r="K41" s="23" t="s">
         <v>111</v>
       </c>
       <c r="L41" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="M41" s="66"/>
+      <c r="M41" s="103"/>
     </row>
     <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="25">
@@ -10966,24 +10973,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="I40:J41"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:M41"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:F40"/>
     <mergeCell ref="G40:H41"/>
     <mergeCell ref="G8:H9"/>
     <mergeCell ref="I8:J9"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11000,14 +11007,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="94" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="96" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="98"/>
-    <col min="5" max="5" width="17.42578125" style="97" customWidth="1"/>
-    <col min="6" max="6" width="18" style="97" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="93"/>
-    <col min="9" max="9" width="9.140625" style="95"/>
-    <col min="10" max="16384" width="9.140625" style="93"/>
+    <col min="1" max="1" width="17.7109375" style="83" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="85" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="87"/>
+    <col min="5" max="5" width="17.42578125" style="86" customWidth="1"/>
+    <col min="6" max="6" width="18" style="86" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="82"/>
+    <col min="9" max="9" width="9.140625" style="84"/>
+    <col min="10" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11025,42 +11032,42 @@
       <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="66" t="s">
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="64" t="s">
+      <c r="F2" s="103"/>
+      <c r="G2" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="65"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="22" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="23" t="s">
         <v>111</v>
       </c>
@@ -11069,1346 +11076,1346 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="99">
+      <c r="A4" s="88">
         <v>3848</v>
       </c>
-      <c r="B4" s="100">
+      <c r="B4" s="89">
         <v>5</v>
       </c>
-      <c r="C4" s="101">
+      <c r="C4" s="90">
         <v>33.095579999999998</v>
       </c>
-      <c r="D4" s="101">
+      <c r="D4" s="90">
         <v>36.316690000000001</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="J4" s="103" t="s">
+      <c r="J4" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="99">
+      <c r="A5" s="88">
         <v>3865.5</v>
       </c>
-      <c r="B5" s="100">
+      <c r="B5" s="89">
         <v>130</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="90">
         <v>33.05254</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="90">
         <v>36.259140000000002</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="92" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="99">
+      <c r="A6" s="88">
         <v>3872.9</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="89">
         <v>19</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="90">
         <v>33.05254</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="90">
         <v>36.252899999999997</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="I6" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="J6" s="103" t="s">
+      <c r="J6" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="99">
+      <c r="A7" s="88">
         <v>3881.8</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="89">
         <v>420</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="90">
         <v>33.05254</v>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="90">
         <v>36.245609999999999</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="103" t="s">
+      <c r="G7" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="J7" s="103" t="s">
+      <c r="J7" s="92" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="99">
+      <c r="A8" s="88">
         <v>3885.7</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="89">
         <v>36</v>
       </c>
-      <c r="C8" s="101">
+      <c r="C8" s="90">
         <v>33.138779999999997</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="90">
         <v>36.32864</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J8" s="103" t="s">
+      <c r="J8" s="92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="99">
+      <c r="A9" s="88">
         <v>3900.4</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="89">
         <v>15</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="90">
         <v>33.138779999999997</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="90">
         <v>36.316690000000001</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G9" s="103" t="s">
+      <c r="G9" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="I9" s="104" t="s">
+      <c r="I9" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="J9" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="99">
+      <c r="A10" s="88">
         <v>3917.9</v>
       </c>
-      <c r="B10" s="100">
+      <c r="B10" s="89">
         <v>160</v>
       </c>
-      <c r="C10" s="101">
+      <c r="C10" s="90">
         <v>33.095579999999998</v>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="90">
         <v>36.259140000000002</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="I10" s="104" t="s">
+      <c r="I10" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="J10" s="103" t="s">
+      <c r="J10" s="92" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="99">
+      <c r="A11" s="88">
         <v>3925.6</v>
       </c>
-      <c r="B11" s="100">
+      <c r="B11" s="89">
         <v>85</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="90">
         <v>33.095579999999998</v>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="90">
         <v>36.252899999999997</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="102" t="s">
+      <c r="F11" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="103" t="s">
+      <c r="G11" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="I11" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="J11" s="103" t="s">
+      <c r="J11" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="99">
+      <c r="A12" s="88">
         <v>3930.6</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="89">
         <v>15</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="90">
         <v>33.175190000000001</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="90">
         <v>36.32864</v>
       </c>
-      <c r="E12" s="102" t="s">
+      <c r="E12" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I12" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="J12" s="103" t="s">
+      <c r="J12" s="92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="99">
+      <c r="A13" s="88">
         <v>3942.6</v>
       </c>
-      <c r="B13" s="100">
+      <c r="B13" s="89">
         <v>32</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="90">
         <v>33.095579999999998</v>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="90">
         <v>36.239240000000002</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I13" s="104" t="s">
+      <c r="I13" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="J13" s="103" t="s">
+      <c r="J13" s="92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="99">
+      <c r="A14" s="88">
         <v>3980.3</v>
       </c>
-      <c r="B14" s="100">
+      <c r="B14" s="89">
         <v>14</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="90">
         <v>33.138779999999997</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="90">
         <v>36.252899999999997</v>
       </c>
-      <c r="E14" s="102" t="s">
+      <c r="E14" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F14" s="102" t="s">
+      <c r="F14" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I14" s="104" t="s">
+      <c r="I14" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J14" s="103" t="s">
+      <c r="J14" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="99">
+      <c r="A15" s="88">
         <v>3997.7</v>
       </c>
-      <c r="B15" s="100">
+      <c r="B15" s="89">
         <v>14</v>
       </c>
-      <c r="C15" s="101">
+      <c r="C15" s="90">
         <v>33.138779999999997</v>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="90">
         <v>36.239240000000002</v>
       </c>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="102" t="s">
+      <c r="F15" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J15" s="103" t="s">
+      <c r="J15" s="92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="99">
+      <c r="A16" s="88">
         <v>4008.8</v>
       </c>
-      <c r="B16" s="100">
+      <c r="B16" s="89">
         <v>27</v>
       </c>
-      <c r="C16" s="101">
+      <c r="C16" s="90">
         <v>33.138779999999997</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D16" s="90">
         <v>36.230609999999999</v>
       </c>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I16" s="104" t="s">
+      <c r="I16" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="103" t="s">
+      <c r="J16" s="92" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="99">
+      <c r="A17" s="88">
         <v>4176.7</v>
       </c>
-      <c r="B17" s="100">
+      <c r="B17" s="89">
         <v>82</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="90">
         <v>33.29148</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D17" s="90">
         <v>36.259140000000002</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="102" t="s">
+      <c r="F17" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="103" t="s">
+      <c r="G17" s="92" t="s">
         <v>199</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="104" t="s">
+      <c r="I17" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="J17" s="103" t="s">
+      <c r="J17" s="92" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="99">
+      <c r="A18" s="88">
         <v>4185.5</v>
       </c>
-      <c r="B18" s="100">
+      <c r="B18" s="89">
         <v>150</v>
       </c>
-      <c r="C18" s="101">
+      <c r="C18" s="90">
         <v>33.29148</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="90">
         <v>36.252899999999997</v>
       </c>
-      <c r="E18" s="102" t="s">
+      <c r="E18" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F18" s="102" t="s">
+      <c r="F18" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="92" t="s">
         <v>199</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="104" t="s">
+      <c r="I18" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="J18" s="103" t="s">
+      <c r="J18" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="99">
+      <c r="A19" s="88">
         <v>4204.8999999999996</v>
       </c>
-      <c r="B19" s="100">
+      <c r="B19" s="89">
         <v>46</v>
       </c>
-      <c r="C19" s="101">
+      <c r="C19" s="90">
         <v>33.29148</v>
       </c>
-      <c r="D19" s="101">
+      <c r="D19" s="90">
         <v>36.239240000000002</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="102" t="s">
+      <c r="F19" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="92" t="s">
         <v>199</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I19" s="104" t="s">
+      <c r="I19" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="J19" s="103" t="s">
+      <c r="J19" s="92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="99">
+      <c r="A20" s="88">
         <v>4253.8</v>
       </c>
-      <c r="B20" s="100">
+      <c r="B20" s="89">
         <v>17</v>
       </c>
-      <c r="C20" s="101">
+      <c r="C20" s="90">
         <v>33.339030000000001</v>
       </c>
-      <c r="D20" s="101">
+      <c r="D20" s="90">
         <v>36.252899999999997</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F20" s="102" t="s">
+      <c r="F20" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="G20" s="92" t="s">
         <v>199</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I20" s="104" t="s">
+      <c r="I20" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J20" s="103" t="s">
+      <c r="J20" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="99">
+      <c r="A21" s="88">
         <v>4273.8999999999996</v>
       </c>
-      <c r="B21" s="100">
+      <c r="B21" s="89">
         <v>23</v>
       </c>
-      <c r="C21" s="101">
+      <c r="C21" s="90">
         <v>33.339030000000001</v>
       </c>
-      <c r="D21" s="101">
+      <c r="D21" s="90">
         <v>36.239240000000002</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="E21" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F21" s="102" t="s">
+      <c r="F21" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G21" s="103" t="s">
+      <c r="G21" s="92" t="s">
         <v>199</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I21" s="104" t="s">
+      <c r="I21" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J21" s="103" t="s">
+      <c r="J21" s="92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="99">
+      <c r="A22" s="88">
         <v>4286.7</v>
       </c>
-      <c r="B22" s="100">
+      <c r="B22" s="89">
         <v>46</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="90">
         <v>33.339030000000001</v>
       </c>
-      <c r="D22" s="101">
+      <c r="D22" s="90">
         <v>36.230609999999999</v>
       </c>
-      <c r="E22" s="102" t="s">
+      <c r="E22" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F22" s="102" t="s">
+      <c r="F22" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G22" s="103" t="s">
+      <c r="G22" s="92" t="s">
         <v>199</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I22" s="104" t="s">
+      <c r="I22" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J22" s="103" t="s">
+      <c r="J22" s="92" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="99">
+      <c r="A23" s="88">
         <v>4393.34</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="101">
+      <c r="C23" s="90">
         <v>2.104429068</v>
       </c>
-      <c r="D23" s="101">
+      <c r="D23" s="90">
         <v>4.9257309999999999</v>
       </c>
-      <c r="E23" s="102" t="s">
+      <c r="E23" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="102" t="s">
+      <c r="F23" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I23" s="104" t="s">
+      <c r="I23" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="J23" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="99">
+      <c r="A24" s="88">
         <v>4432.3</v>
       </c>
-      <c r="B24" s="100">
+      <c r="B24" s="89">
         <v>310</v>
       </c>
-      <c r="C24" s="101">
+      <c r="C24" s="90">
         <v>32.700249999999997</v>
       </c>
-      <c r="D24" s="101">
+      <c r="D24" s="90">
         <v>35.496720000000003</v>
       </c>
-      <c r="E24" s="102" t="s">
+      <c r="E24" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F24" s="102" t="s">
+      <c r="F24" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="G24" s="103" t="s">
+      <c r="G24" s="92" t="s">
         <v>206</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="104" t="s">
+      <c r="I24" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J24" s="103" t="s">
+      <c r="J24" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="99">
+      <c r="A25" s="88">
         <v>4494.1769999999997</v>
       </c>
-      <c r="B25" s="100">
+      <c r="B25" s="89">
         <v>10</v>
       </c>
-      <c r="C25" s="101">
+      <c r="C25" s="90">
         <v>2.1022970430000001</v>
       </c>
-      <c r="D25" s="101">
+      <c r="D25" s="90">
         <v>4.8602959999999999</v>
       </c>
-      <c r="E25" s="102" t="s">
+      <c r="E25" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="G25" s="103" t="s">
+      <c r="G25" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I25" s="104" t="s">
+      <c r="I25" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="J25" s="103" t="s">
+      <c r="J25" s="92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="99">
+      <c r="A26" s="88">
         <v>4497.6580000000004</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="101">
+      <c r="C26" s="90">
         <v>2.104429068</v>
       </c>
-      <c r="D26" s="101">
+      <c r="D26" s="90">
         <v>4.8602959999999999</v>
       </c>
-      <c r="E26" s="102" t="s">
+      <c r="E26" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F26" s="102" t="s">
+      <c r="F26" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="103" t="s">
+      <c r="G26" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I26" s="104" t="s">
+      <c r="I26" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="103" t="s">
+      <c r="J26" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="99">
+      <c r="A27" s="88">
         <v>4664.8107</v>
       </c>
-      <c r="B27" s="100">
-        <v>1</v>
-      </c>
-      <c r="C27" s="101">
+      <c r="B27" s="89">
+        <v>1</v>
+      </c>
+      <c r="C27" s="90">
         <v>2.1022970430000001</v>
       </c>
-      <c r="D27" s="101">
+      <c r="D27" s="90">
         <v>4.7594143999999998</v>
       </c>
-      <c r="E27" s="102" t="s">
+      <c r="E27" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F27" s="102" t="s">
+      <c r="F27" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="G27" s="103" t="s">
+      <c r="G27" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I27" s="104" t="s">
+      <c r="I27" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="J27" s="103" t="s">
+      <c r="J27" s="92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="99">
+      <c r="A28" s="88">
         <v>4668.5595000000003</v>
       </c>
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="101">
+      <c r="C28" s="90">
         <v>2.104429068</v>
       </c>
-      <c r="D28" s="101">
+      <c r="D28" s="90">
         <v>4.7594127000000004</v>
       </c>
-      <c r="E28" s="102" t="s">
+      <c r="E28" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F28" s="102" t="s">
+      <c r="F28" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="103" t="s">
+      <c r="G28" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I28" s="104" t="s">
+      <c r="I28" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J28" s="103" t="s">
+      <c r="J28" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="99">
+      <c r="A29" s="88">
         <v>4751.8217999999997</v>
       </c>
-      <c r="B29" s="100">
+      <c r="B29" s="89">
         <v>2</v>
       </c>
-      <c r="C29" s="101">
+      <c r="C29" s="90">
         <v>2.104429068</v>
       </c>
-      <c r="D29" s="101">
+      <c r="D29" s="90">
         <v>4.7128923</v>
       </c>
-      <c r="E29" s="102" t="s">
+      <c r="E29" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F29" s="102" t="s">
+      <c r="F29" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="G29" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="I29" s="104" t="s">
+      <c r="I29" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J29" s="103" t="s">
+      <c r="J29" s="92" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="99">
+      <c r="A30" s="88">
         <v>4978.5414000000001</v>
       </c>
-      <c r="B30" s="100">
-        <v>1</v>
-      </c>
-      <c r="C30" s="101">
+      <c r="B30" s="89">
+        <v>1</v>
+      </c>
+      <c r="C30" s="90">
         <v>2.1022970430000001</v>
       </c>
-      <c r="D30" s="101">
+      <c r="D30" s="90">
         <v>4.5919742000000001</v>
       </c>
-      <c r="E30" s="102" t="s">
+      <c r="E30" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="102" t="s">
+      <c r="F30" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="G30" s="103" t="s">
+      <c r="G30" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I30" s="104" t="s">
+      <c r="I30" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="J30" s="103" t="s">
+      <c r="J30" s="92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="99">
+      <c r="A31" s="88">
         <v>4982.8134</v>
       </c>
-      <c r="B31" s="100">
+      <c r="B31" s="89">
         <v>2</v>
       </c>
-      <c r="C31" s="101">
+      <c r="C31" s="90">
         <v>2.104429068</v>
       </c>
-      <c r="D31" s="101">
+      <c r="D31" s="90">
         <v>4.5919717000000002</v>
       </c>
-      <c r="E31" s="102" t="s">
+      <c r="E31" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="102" t="s">
+      <c r="F31" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="G31" s="103" t="s">
+      <c r="G31" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I31" s="104" t="s">
+      <c r="I31" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J31" s="103" t="s">
+      <c r="J31" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="99">
+      <c r="A32" s="88">
         <v>5071.2</v>
       </c>
-      <c r="B32" s="100">
+      <c r="B32" s="89">
         <v>270</v>
       </c>
-      <c r="C32" s="101">
+      <c r="C32" s="90">
         <v>33.05254</v>
       </c>
-      <c r="D32" s="101">
+      <c r="D32" s="90">
         <v>35.496720000000003</v>
       </c>
-      <c r="E32" s="102" t="s">
+      <c r="E32" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F32" s="102" t="s">
+      <c r="F32" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="G32" s="103" t="s">
+      <c r="G32" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I32" s="104" t="s">
+      <c r="I32" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="J32" s="103" t="s">
+      <c r="J32" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="99">
+      <c r="A33" s="88">
         <v>5148.8380999999999</v>
       </c>
-      <c r="B33" s="100">
-        <v>1</v>
-      </c>
-      <c r="C33" s="101">
+      <c r="B33" s="89">
+        <v>1</v>
+      </c>
+      <c r="C33" s="90">
         <v>2.1022970430000001</v>
       </c>
-      <c r="D33" s="101">
+      <c r="D33" s="90">
         <v>4.5096296000000002</v>
       </c>
-      <c r="E33" s="102" t="s">
+      <c r="E33" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F33" s="102" t="s">
+      <c r="F33" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="G33" s="103" t="s">
+      <c r="G33" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="I33" s="104" t="s">
+      <c r="I33" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="J33" s="103" t="s">
+      <c r="J33" s="92" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="99">
+      <c r="A34" s="88">
         <v>5153.4023999999999</v>
       </c>
-      <c r="B34" s="100">
+      <c r="B34" s="89">
         <v>2</v>
       </c>
-      <c r="C34" s="101">
+      <c r="C34" s="90">
         <v>2.104429068</v>
       </c>
-      <c r="D34" s="101">
+      <c r="D34" s="90">
         <v>4.5096296000000002</v>
       </c>
-      <c r="E34" s="102" t="s">
+      <c r="E34" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="102" t="s">
+      <c r="F34" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="G34" s="103" t="s">
+      <c r="G34" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="I34" s="104" t="s">
+      <c r="I34" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J34" s="103" t="s">
+      <c r="J34" s="92" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="99">
+      <c r="A35" s="88">
         <v>5162.5</v>
       </c>
-      <c r="B35" s="100">
+      <c r="B35" s="89">
         <v>83</v>
       </c>
-      <c r="C35" s="101">
+      <c r="C35" s="90">
         <v>33.095579999999998</v>
       </c>
-      <c r="D35" s="101">
+      <c r="D35" s="90">
         <v>35.496720000000003</v>
       </c>
-      <c r="E35" s="102" t="s">
+      <c r="E35" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F35" s="102" t="s">
+      <c r="F35" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="103" t="s">
+      <c r="G35" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I35" s="104" t="s">
+      <c r="I35" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="J35" s="103" t="s">
+      <c r="J35" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="99">
+      <c r="A36" s="88">
         <v>5256.4</v>
       </c>
-      <c r="B36" s="100">
+      <c r="B36" s="89">
         <v>7</v>
       </c>
-      <c r="C36" s="101">
+      <c r="C36" s="90">
         <v>33.138779999999997</v>
       </c>
-      <c r="D36" s="101">
+      <c r="D36" s="90">
         <v>35.496720000000003</v>
       </c>
-      <c r="E36" s="102" t="s">
+      <c r="E36" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F36" s="102" t="s">
+      <c r="F36" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="G36" s="103" t="s">
+      <c r="G36" s="92" t="s">
         <v>195</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I36" s="104" t="s">
+      <c r="I36" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J36" s="103" t="s">
+      <c r="J36" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="99">
+      <c r="A37" s="88">
         <v>5621</v>
       </c>
-      <c r="B37" s="100">
+      <c r="B37" s="89">
         <v>42</v>
       </c>
-      <c r="C37" s="101">
+      <c r="C37" s="90">
         <v>33.29148</v>
       </c>
-      <c r="D37" s="101">
+      <c r="D37" s="90">
         <v>35.496720000000003</v>
       </c>
-      <c r="E37" s="102" t="s">
+      <c r="E37" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F37" s="102" t="s">
+      <c r="F37" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="G37" s="103" t="s">
+      <c r="G37" s="92" t="s">
         <v>199</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I37" s="104" t="s">
+      <c r="I37" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="J37" s="103" t="s">
+      <c r="J37" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="99">
+      <c r="A38" s="88">
         <v>5682.6333000000004</v>
       </c>
-      <c r="B38" s="100">
+      <c r="B38" s="89">
         <v>5</v>
       </c>
-      <c r="C38" s="101">
+      <c r="C38" s="90">
         <v>2.1022970430000001</v>
       </c>
-      <c r="D38" s="101">
+      <c r="D38" s="90">
         <v>4.2835004999999997</v>
       </c>
-      <c r="E38" s="102" t="s">
+      <c r="E38" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F38" s="102" t="s">
+      <c r="F38" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="G38" s="103" t="s">
+      <c r="G38" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I38" s="104" t="s">
+      <c r="I38" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="J38" s="103" t="s">
+      <c r="J38" s="92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="99">
+      <c r="A39" s="88">
         <v>5688.1934000000001</v>
       </c>
-      <c r="B39" s="100">
-        <v>1</v>
-      </c>
-      <c r="C39" s="101">
+      <c r="B39" s="89">
+        <v>1</v>
+      </c>
+      <c r="C39" s="90">
         <v>2.104429068</v>
       </c>
-      <c r="D39" s="101">
+      <c r="D39" s="90">
         <v>4.2835004999999997</v>
       </c>
-      <c r="E39" s="102" t="s">
+      <c r="E39" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F39" s="102" t="s">
+      <c r="F39" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="G39" s="103" t="s">
+      <c r="G39" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I39" s="104" t="s">
+      <c r="I39" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J39" s="103" t="s">
+      <c r="J39" s="92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="99">
+      <c r="A40" s="88">
         <v>5688.2046</v>
       </c>
-      <c r="B40" s="100">
+      <c r="B40" s="89">
         <v>9</v>
       </c>
-      <c r="C40" s="101">
+      <c r="C40" s="90">
         <v>2.104429068</v>
       </c>
-      <c r="D40" s="101">
+      <c r="D40" s="90">
         <v>4.2834962000000001</v>
       </c>
-      <c r="E40" s="102" t="s">
+      <c r="E40" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F40" s="102" t="s">
+      <c r="F40" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="G40" s="103" t="s">
+      <c r="G40" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I40" s="104" t="s">
+      <c r="I40" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J40" s="103" t="s">
+      <c r="J40" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="99">
+      <c r="A41" s="88">
         <v>5744.2</v>
       </c>
-      <c r="B41" s="100">
+      <c r="B41" s="89">
         <v>12</v>
       </c>
-      <c r="C41" s="101">
+      <c r="C41" s="90">
         <v>33.339030000000001</v>
       </c>
-      <c r="D41" s="101">
+      <c r="D41" s="90">
         <v>35.496720000000003</v>
       </c>
-      <c r="E41" s="102" t="s">
+      <c r="E41" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="F41" s="102" t="s">
+      <c r="F41" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="G41" s="103" t="s">
+      <c r="G41" s="92" t="s">
         <v>199</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="I41" s="104" t="s">
+      <c r="I41" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J41" s="103" t="s">
+      <c r="J41" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="99">
+      <c r="A42" s="88">
         <v>5889.9509539999999</v>
       </c>
-      <c r="B42" s="100">
+      <c r="B42" s="89">
         <v>80000</v>
       </c>
-      <c r="C42" s="101">
-        <v>0</v>
-      </c>
-      <c r="D42" s="101">
+      <c r="C42" s="90">
+        <v>0</v>
+      </c>
+      <c r="D42" s="90">
         <v>2.104429068</v>
       </c>
-      <c r="E42" s="102" t="s">
+      <c r="E42" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="F42" s="102" t="s">
+      <c r="F42" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="G42" s="103" t="s">
+      <c r="G42" s="92" t="s">
         <v>211</v>
       </c>
       <c r="H42" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="I42" s="104" t="s">
+      <c r="I42" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="J42" s="103" t="s">
+      <c r="J42" s="92" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="99">
+      <c r="A43" s="88">
         <v>5895.9242370000002</v>
       </c>
-      <c r="B43" s="100">
+      <c r="B43" s="89">
         <v>40000</v>
       </c>
-      <c r="C43" s="101">
-        <v>0</v>
-      </c>
-      <c r="D43" s="101">
+      <c r="C43" s="90">
+        <v>0</v>
+      </c>
+      <c r="D43" s="90">
         <v>2.1022970430000001</v>
       </c>
-      <c r="E43" s="102" t="s">
+      <c r="E43" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="102" t="s">
+      <c r="F43" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="G43" s="103" t="s">
+      <c r="G43" s="92" t="s">
         <v>211</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="I43" s="104" t="s">
+      <c r="I43" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="J43" s="103" t="s">
+      <c r="J43" s="92" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="99">
+      <c r="A44" s="88">
         <v>6154.2253000000001</v>
       </c>
-      <c r="B44" s="100">
-        <v>1</v>
-      </c>
-      <c r="C44" s="101">
+      <c r="B44" s="89">
+        <v>1</v>
+      </c>
+      <c r="C44" s="90">
         <v>2.1022970430000001</v>
       </c>
-      <c r="D44" s="101">
+      <c r="D44" s="90">
         <v>4.1163585999999999</v>
       </c>
-      <c r="E44" s="102" t="s">
+      <c r="E44" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F44" s="102" t="s">
+      <c r="F44" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="G44" s="103" t="s">
+      <c r="G44" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H44" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="I44" s="104" t="s">
+      <c r="I44" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="J44" s="103" t="s">
+      <c r="J44" s="92" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="99">
+      <c r="A45" s="88">
         <v>6160.7470000000003</v>
       </c>
-      <c r="B45" s="100">
+      <c r="B45" s="89">
         <v>2</v>
       </c>
-      <c r="C45" s="101">
+      <c r="C45" s="90">
         <v>2.104429068</v>
       </c>
-      <c r="D45" s="101">
+      <c r="D45" s="90">
         <v>4.1163585999999999</v>
       </c>
-      <c r="E45" s="102" t="s">
+      <c r="E45" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F45" s="102" t="s">
+      <c r="F45" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="G45" s="103" t="s">
+      <c r="G45" s="92" t="s">
         <v>203</v>
       </c>
       <c r="H45" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="I45" s="104" t="s">
+      <c r="I45" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="J45" s="103" t="s">
+      <c r="J45" s="92" t="s">
         <v>221</v>
       </c>
     </row>
